--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1163514.013981225</v>
+        <v>-1166082.437420171</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>355.8126253390003</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3516754465272</v>
+        <v>338.3516754465273</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7618252962026</v>
+        <v>327.7618252962027</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0091537477815</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9548294172311</v>
+        <v>88.93593739739696</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0005093289731</v>
+        <v>384.0005093289732</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6865480628401</v>
+        <v>267.6865480628402</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65571344844558</v>
+        <v>14.65571344844564</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.26654546369554</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9967538151398</v>
+        <v>176.9967538151399</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0739556344216</v>
+        <v>224.0739556344217</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>300.8310421456546</v>
       </c>
       <c r="W11" t="n">
         <v>322.3197523929327</v>
       </c>
       <c r="X11" t="n">
-        <v>76.37532920314855</v>
+        <v>342.8098843539888</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3167223315733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1528,25 @@
         <v>152.910763857457</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3256047741475</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.694256693732</v>
+        <v>37.59273189318917</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5127463220888</v>
+        <v>119.5127463220889</v>
       </c>
       <c r="F13" t="n">
-        <v>118.4998316984509</v>
+        <v>118.499831698451</v>
       </c>
       <c r="G13" t="n">
         <v>139.1045919345479</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8337985898404</v>
+        <v>117.8337985898405</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43120408535773</v>
+        <v>69.43120408535779</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01093634556699</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>162.8478090069616</v>
       </c>
       <c r="T13" t="n">
         <v>192.6277329516889</v>
       </c>
       <c r="U13" t="n">
-        <v>135.7003649678387</v>
+        <v>259.2906218811326</v>
       </c>
       <c r="V13" t="n">
         <v>225.2164269993477</v>
@@ -1591,7 +1591,7 @@
         <v>259.6017820121107</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7884390645568</v>
+        <v>198.7884390645569</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8126253390002</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3516754465272</v>
+        <v>338.3516754465273</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7618252962026</v>
+        <v>327.7618252962027</v>
       </c>
       <c r="E14" t="n">
         <v>355.0091537477815</v>
       </c>
       <c r="F14" t="n">
-        <v>379.9548294172311</v>
+        <v>379.9548294172312</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>384.0005093289732</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>216.2007967170906</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26654546369546</v>
+        <v>82.26654546369554</v>
       </c>
       <c r="T14" t="n">
-        <v>160.3145089491419</v>
+        <v>176.9967538151399</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0739556344217</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>300.8310421456546</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>322.3197523929327</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8098843539887</v>
+        <v>342.8098843539888</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3167223315733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1765,25 +1765,25 @@
         <v>152.910763857457</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3256047741475</v>
+        <v>140.3256047741476</v>
       </c>
       <c r="D16" t="n">
-        <v>121.694256693732</v>
+        <v>121.6942566937321</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5127463220889</v>
       </c>
       <c r="F16" t="n">
-        <v>118.4998316984509</v>
+        <v>118.499831698451</v>
       </c>
       <c r="G16" t="n">
         <v>139.1045919345479</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8337985898404</v>
+        <v>117.8337985898405</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>8.81617944170339</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01093634556699</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6277329516889</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>259.2906218811326</v>
@@ -1825,10 +1825,10 @@
         <v>225.2164269993477</v>
       </c>
       <c r="W16" t="n">
-        <v>133.2920384786485</v>
+        <v>259.6017820121107</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7884390645568</v>
+        <v>198.7884390645569</v>
       </c>
       <c r="Y16" t="n">
         <v>191.6634370276145</v>
@@ -1844,13 +1844,13 @@
         <v>308.8374887204077</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3765388279347</v>
+        <v>254.1741445728819</v>
       </c>
       <c r="D17" t="n">
         <v>280.7866886776101</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0340171291889</v>
+        <v>308.034017129189</v>
       </c>
       <c r="F17" t="n">
         <v>332.9796927986386</v>
@@ -1859,7 +1859,7 @@
         <v>337.0253727103806</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>220.7114114442476</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29140884510292</v>
+        <v>35.29140884510301</v>
       </c>
       <c r="T17" t="n">
         <v>130.0216171965473</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0988190158291</v>
+        <v>177.0988190158292</v>
       </c>
       <c r="V17" t="n">
-        <v>253.855905527062</v>
+        <v>253.8559055270621</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3446157743401</v>
+        <v>275.3446157743402</v>
       </c>
       <c r="X17" t="n">
-        <v>183.5090171891948</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3415857129807</v>
+        <v>312.3415857129808</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9356272388644</v>
+        <v>105.9356272388645</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35046815555494</v>
+        <v>93.35046815555501</v>
       </c>
       <c r="D19" t="n">
-        <v>74.71912007513946</v>
+        <v>137.1359300677636</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53760970349627</v>
+        <v>72.53760970349634</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52469507985835</v>
+        <v>71.52469507985842</v>
       </c>
       <c r="G19" t="n">
-        <v>154.5462653085809</v>
+        <v>92.1294553159554</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85866197124788</v>
+        <v>70.85866197124795</v>
       </c>
       <c r="I19" t="n">
-        <v>22.4560674667652</v>
+        <v>22.45606746676527</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03579972697443</v>
+        <v>15.0357997269745</v>
       </c>
       <c r="S19" t="n">
-        <v>115.872672388369</v>
+        <v>115.8726723883691</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6525963330963</v>
+        <v>145.6525963330964</v>
       </c>
       <c r="U19" t="n">
         <v>212.31548526254</v>
       </c>
       <c r="V19" t="n">
-        <v>178.2412903807551</v>
+        <v>178.2412903807552</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6266453935181</v>
+        <v>212.6266453935182</v>
       </c>
       <c r="X19" t="n">
         <v>151.8133024459643</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6883004090219</v>
+        <v>144.688300409022</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2087,7 @@
         <v>280.7866886776101</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0340171291889</v>
+        <v>308.034017129189</v>
       </c>
       <c r="F20" t="n">
         <v>332.9796927986386</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29140884510292</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0216171965473</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0988190158291</v>
+        <v>177.0988190158292</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>253.8559055270621</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3446157743401</v>
+        <v>107.6204998255408</v>
       </c>
       <c r="X20" t="n">
-        <v>295.8347477353961</v>
+        <v>295.8347477353962</v>
       </c>
       <c r="Y20" t="n">
-        <v>233.1603492495937</v>
+        <v>312.3415857129808</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9356272388644</v>
+        <v>105.9356272388645</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35046815555494</v>
+        <v>93.35046815555501</v>
       </c>
       <c r="D22" t="n">
-        <v>74.71912007513946</v>
+        <v>74.71912007513953</v>
       </c>
       <c r="E22" t="n">
-        <v>134.9544196961218</v>
+        <v>72.53760970349634</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52469507985835</v>
+        <v>71.52469507985842</v>
       </c>
       <c r="G22" t="n">
-        <v>92.12945531595533</v>
+        <v>92.1294553159554</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85866197124788</v>
+        <v>70.85866197124795</v>
       </c>
       <c r="I22" t="n">
-        <v>22.4560674667652</v>
+        <v>22.45606746676527</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03579972697443</v>
+        <v>15.0357997269745</v>
       </c>
       <c r="S22" t="n">
-        <v>115.872672388369</v>
+        <v>115.8726723883691</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6525963330963</v>
+        <v>145.6525963330964</v>
       </c>
       <c r="U22" t="n">
         <v>212.31548526254</v>
       </c>
       <c r="V22" t="n">
-        <v>178.2412903807551</v>
+        <v>178.2412903807552</v>
       </c>
       <c r="W22" t="n">
-        <v>212.6266453935181</v>
+        <v>275.0434553861423</v>
       </c>
       <c r="X22" t="n">
         <v>151.8133024459643</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6883004090219</v>
+        <v>144.688300409022</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2324,7 @@
         <v>280.7866886776101</v>
       </c>
       <c r="E23" t="n">
-        <v>308.0340171291889</v>
+        <v>308.034017129189</v>
       </c>
       <c r="F23" t="n">
         <v>332.9796927986386</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29140884510292</v>
+        <v>35.29140884510301</v>
       </c>
       <c r="T23" t="n">
         <v>130.0216171965473</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0988190158291</v>
+        <v>177.0988190158292</v>
       </c>
       <c r="V23" t="n">
-        <v>253.855905527062</v>
+        <v>253.8559055270621</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3446157743401</v>
+        <v>275.3446157743402</v>
       </c>
       <c r="X23" t="n">
-        <v>295.8347477353961</v>
+        <v>295.8347477353962</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3415857129807</v>
+        <v>312.3415857129808</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168.3524372314899</v>
+        <v>105.9356272388645</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35046815555494</v>
+        <v>93.35046815555501</v>
       </c>
       <c r="D25" t="n">
-        <v>74.71912007513946</v>
+        <v>74.71912007513953</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53760970349627</v>
+        <v>72.53760970349634</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52469507985835</v>
+        <v>71.52469507985842</v>
       </c>
       <c r="G25" t="n">
-        <v>92.12945531595533</v>
+        <v>92.1294553159554</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85866197124788</v>
+        <v>70.85866197124795</v>
       </c>
       <c r="I25" t="n">
-        <v>22.4560674667652</v>
+        <v>84.8728774593894</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03579972697443</v>
+        <v>15.0357997269745</v>
       </c>
       <c r="S25" t="n">
-        <v>115.872672388369</v>
+        <v>115.8726723883691</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6525963330963</v>
+        <v>145.6525963330964</v>
       </c>
       <c r="U25" t="n">
         <v>212.31548526254</v>
       </c>
       <c r="V25" t="n">
-        <v>178.2412903807551</v>
+        <v>178.2412903807552</v>
       </c>
       <c r="W25" t="n">
-        <v>212.6266453935181</v>
+        <v>212.6266453935182</v>
       </c>
       <c r="X25" t="n">
         <v>151.8133024459643</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6883004090219</v>
+        <v>144.688300409022</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2953,22 +2953,22 @@
         <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996192</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2154.815404056427</v>
+        <v>1502.261822472977</v>
       </c>
       <c r="C11" t="n">
-        <v>1813.046034918521</v>
+        <v>1160.492453335071</v>
       </c>
       <c r="D11" t="n">
-        <v>1481.973484114276</v>
+        <v>829.4199025308258</v>
       </c>
       <c r="E11" t="n">
-        <v>1123.378379318537</v>
+        <v>829.4199025308258</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5856223314348</v>
+        <v>739.5856223314349</v>
       </c>
       <c r="G11" t="n">
         <v>351.7063199789368</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31586739020926</v>
+        <v>81.31586739020935</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3242.508300938773</v>
       </c>
       <c r="T11" t="n">
-        <v>3146.821221795899</v>
+        <v>3063.7237011255</v>
       </c>
       <c r="U11" t="n">
-        <v>2920.48389287224</v>
+        <v>2837.386372201842</v>
       </c>
       <c r="V11" t="n">
-        <v>2920.48389287224</v>
+        <v>2533.516632660777</v>
       </c>
       <c r="W11" t="n">
-        <v>2594.908385404631</v>
+        <v>2207.941125193168</v>
       </c>
       <c r="X11" t="n">
-        <v>2517.761588229734</v>
+        <v>1861.668514734594</v>
       </c>
       <c r="Y11" t="n">
-        <v>2154.815404056427</v>
+        <v>1861.668514734594</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031484</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>901.2616458242696</v>
+        <v>674.567575546805</v>
       </c>
       <c r="C13" t="n">
-        <v>759.5186106988681</v>
+        <v>674.567575546805</v>
       </c>
       <c r="D13" t="n">
-        <v>636.5951190890378</v>
+        <v>636.5951190890381</v>
       </c>
       <c r="E13" t="n">
-        <v>515.8751733091501</v>
+        <v>515.8751733091503</v>
       </c>
       <c r="F13" t="n">
-        <v>396.1783736137452</v>
+        <v>396.1783736137453</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6686847909695</v>
+        <v>255.6686847909696</v>
       </c>
       <c r="H13" t="n">
         <v>136.6446458113327</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2867530403545</v>
+        <v>138.2867530403544</v>
       </c>
       <c r="K13" t="n">
         <v>368.9259401504664</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1377427601983</v>
+        <v>712.137742760198</v>
       </c>
       <c r="M13" t="n">
-        <v>1082.946792520983</v>
+        <v>1082.946792520982</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.007173388083</v>
+        <v>1451.007173388082</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.988776469732</v>
+        <v>1776.988776469731</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.248281064627</v>
+        <v>2036.248281064626</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.510581378378</v>
+        <v>2140.510581378377</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.873271938411</v>
+        <v>2140.510581378377</v>
       </c>
       <c r="S13" t="n">
-        <v>2077.873271938411</v>
+        <v>1976.017845007708</v>
       </c>
       <c r="T13" t="n">
-        <v>1883.299804310442</v>
+        <v>1781.44437737974</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.228728585352</v>
+        <v>1519.534658307888</v>
       </c>
       <c r="V13" t="n">
-        <v>1518.737388181971</v>
+        <v>1292.043317904507</v>
       </c>
       <c r="W13" t="n">
-        <v>1256.513365947516</v>
+        <v>1029.819295670051</v>
       </c>
       <c r="X13" t="n">
-        <v>1055.716962852004</v>
+        <v>829.0228925745394</v>
       </c>
       <c r="Y13" t="n">
-        <v>1055.716962852004</v>
+        <v>829.0228925745394</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1481.741898157176</v>
+        <v>2088.005843658251</v>
       </c>
       <c r="C14" t="n">
-        <v>1139.97252901927</v>
+        <v>1746.236474520344</v>
       </c>
       <c r="D14" t="n">
-        <v>808.8999782150245</v>
+        <v>1415.163923716099</v>
       </c>
       <c r="E14" t="n">
-        <v>450.3048734192856</v>
+        <v>1056.56881892036</v>
       </c>
       <c r="F14" t="n">
-        <v>66.51211643218343</v>
+        <v>672.7760619332582</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218343</v>
+        <v>284.8967595807599</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5306,22 +5306,22 @@
         <v>3242.508300938772</v>
       </c>
       <c r="T14" t="n">
-        <v>3080.574453515396</v>
+        <v>3063.7237011255</v>
       </c>
       <c r="U14" t="n">
-        <v>2854.237124591738</v>
+        <v>3063.7237011255</v>
       </c>
       <c r="V14" t="n">
-        <v>2550.367385050673</v>
+        <v>2759.853961584434</v>
       </c>
       <c r="W14" t="n">
-        <v>2550.367385050673</v>
+        <v>2434.278454116825</v>
       </c>
       <c r="X14" t="n">
-        <v>2204.094774592098</v>
+        <v>2088.005843658251</v>
       </c>
       <c r="Y14" t="n">
-        <v>1841.148590418792</v>
+        <v>2088.005843658251</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>710.4091706652328</v>
+        <v>840.0343482044173</v>
       </c>
       <c r="C16" t="n">
-        <v>568.6661355398312</v>
+        <v>698.2913130790157</v>
       </c>
       <c r="D16" t="n">
-        <v>445.7426439300008</v>
+        <v>575.3678214691853</v>
       </c>
       <c r="E16" t="n">
-        <v>445.7426439300008</v>
+        <v>454.6478756892975</v>
       </c>
       <c r="F16" t="n">
-        <v>326.0458442345958</v>
+        <v>334.9510759938925</v>
       </c>
       <c r="G16" t="n">
-        <v>185.5361554118202</v>
+        <v>194.4413871711167</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>75.41734819147979</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2867530403546</v>
+        <v>138.2867530403545</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9259401504665</v>
+        <v>368.9259401504664</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1377427601983</v>
+        <v>712.137742760198</v>
       </c>
       <c r="M16" t="n">
-        <v>1082.946792520983</v>
+        <v>1082.946792520982</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.007173388083</v>
+        <v>1451.007173388082</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.988776469732</v>
+        <v>1776.988776469731</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.248281064627</v>
+        <v>2036.248281064626</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.510581378378</v>
+        <v>2140.510581378376</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.873271938411</v>
+        <v>2140.510581378376</v>
       </c>
       <c r="S16" t="n">
-        <v>2077.873271938411</v>
+        <v>2140.510581378376</v>
       </c>
       <c r="T16" t="n">
-        <v>1883.299804310442</v>
+        <v>2140.510581378376</v>
       </c>
       <c r="U16" t="n">
-        <v>1621.390085238591</v>
+        <v>1878.600862306525</v>
       </c>
       <c r="V16" t="n">
-        <v>1393.898744835209</v>
+        <v>1651.109521903144</v>
       </c>
       <c r="W16" t="n">
-        <v>1259.260322129504</v>
+        <v>1388.885499668688</v>
       </c>
       <c r="X16" t="n">
-        <v>1058.463919033992</v>
+        <v>1188.089096573176</v>
       </c>
       <c r="Y16" t="n">
-        <v>864.864487692967</v>
+        <v>994.4896652321515</v>
       </c>
     </row>
     <row r="17">
@@ -5489,64 +5489,64 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1632.373035769308</v>
+        <v>1817.735679394757</v>
       </c>
       <c r="C17" t="n">
-        <v>1338.053299579474</v>
+        <v>1560.994119220129</v>
       </c>
       <c r="D17" t="n">
-        <v>1054.430381723303</v>
+        <v>1277.371201363957</v>
       </c>
       <c r="E17" t="n">
-        <v>743.2849098756371</v>
+        <v>966.2257295162912</v>
       </c>
       <c r="F17" t="n">
-        <v>406.9417858366082</v>
+        <v>629.8826054772622</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>289.4529360728376</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.957933886844</v>
+        <v>3289.957933886845</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.622967021645</v>
+        <v>3158.622967021646</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.73527104606</v>
+        <v>2979.735271046061</v>
       </c>
       <c r="V17" t="n">
         <v>2723.315164453069</v>
@@ -5555,10 +5555,10 @@
         <v>2445.189289933533</v>
       </c>
       <c r="X17" t="n">
-        <v>2259.826646308084</v>
+        <v>2445.189289933533</v>
       </c>
       <c r="Y17" t="n">
-        <v>1944.330095082851</v>
+        <v>2129.6927387083</v>
       </c>
     </row>
     <row r="18">
@@ -5583,16 +5583,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.1614980085905</v>
+        <v>632.1614980085895</v>
       </c>
       <c r="C19" t="n">
-        <v>537.8680958312623</v>
+        <v>537.8680958312613</v>
       </c>
       <c r="D19" t="n">
-        <v>462.3942371695052</v>
+        <v>399.3469543486717</v>
       </c>
       <c r="E19" t="n">
-        <v>389.1239243376908</v>
+        <v>326.0766415168572</v>
       </c>
       <c r="F19" t="n">
-        <v>316.8767575903591</v>
+        <v>253.8294747695255</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7694188948229</v>
+        <v>160.769418894823</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19501286325938</v>
+        <v>89.19501286325946</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5698,25 +5698,25 @@
         <v>1912.106871596599</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.063768174005</v>
+        <v>1795.063768174004</v>
       </c>
       <c r="T19" t="n">
         <v>1647.939933494109</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.479847370332</v>
+        <v>1433.479847370331</v>
       </c>
       <c r="V19" t="n">
         <v>1253.438139915023</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.663750628642</v>
+        <v>1038.663750628641</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3169804812029</v>
+        <v>885.3169804812021</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1671820882515</v>
+        <v>739.1671820882507</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1855.313855409961</v>
+        <v>1855.313855409963</v>
       </c>
       <c r="C20" t="n">
-        <v>1560.994119220128</v>
+        <v>1560.99411922013</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.371201363957</v>
+        <v>1277.371201363958</v>
       </c>
       <c r="E20" t="n">
-        <v>966.225729516291</v>
+        <v>966.2257295162922</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8826054772621</v>
+        <v>629.8826054772633</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4529360728375</v>
+        <v>289.4529360728376</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.957933886844</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.622967021645</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.73527104606</v>
+        <v>3146.718125633587</v>
       </c>
       <c r="V20" t="n">
-        <v>2979.73527104606</v>
+        <v>2890.298019040595</v>
       </c>
       <c r="W20" t="n">
-        <v>2701.609396526525</v>
+        <v>2781.59044345924</v>
       </c>
       <c r="X20" t="n">
-        <v>2402.786419016024</v>
+        <v>2482.767465948739</v>
       </c>
       <c r="Y20" t="n">
-        <v>2167.270914723505</v>
+        <v>2167.270914723506</v>
       </c>
     </row>
     <row r="21">
@@ -5820,22 +5820,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.1614980085905</v>
+        <v>569.1142151877571</v>
       </c>
       <c r="C22" t="n">
-        <v>537.8680958312623</v>
+        <v>474.8208130104288</v>
       </c>
       <c r="D22" t="n">
-        <v>462.3942371695052</v>
+        <v>399.3469543486717</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0766415168569</v>
+        <v>326.0766415168572</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8294747695253</v>
+        <v>253.8294747695255</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7694188948229</v>
+        <v>160.769418894823</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19501286325938</v>
+        <v>89.19501286325946</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5935,25 +5935,25 @@
         <v>1912.106871596599</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.063768174005</v>
+        <v>1795.063768174004</v>
       </c>
       <c r="T22" t="n">
         <v>1647.939933494109</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.479847370332</v>
+        <v>1433.479847370331</v>
       </c>
       <c r="V22" t="n">
         <v>1253.438139915023</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.663750628642</v>
+        <v>975.6164678078085</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3169804812029</v>
+        <v>822.2696976603697</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1671820882515</v>
+        <v>676.1198992674182</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.179185073752</v>
+        <v>1862.179185073751</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.859448883919</v>
+        <v>1567.859448883918</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.236531027747</v>
+        <v>1284.236531027746</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0910591800814</v>
+        <v>973.0910591800809</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7479351410525</v>
+        <v>636.747935141052</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3182657366274</v>
+        <v>296.3182657366276</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37744609597333</v>
+        <v>73.37744609597335</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37744609597333</v>
+        <v>73.37744609597335</v>
       </c>
       <c r="J23" t="n">
         <v>262.2565770549988</v>
@@ -5993,28 +5993,28 @@
         <v>596.0759507448453</v>
       </c>
       <c r="L23" t="n">
-        <v>1318.452061844707</v>
+        <v>1047.110163993254</v>
       </c>
       <c r="M23" t="n">
-        <v>1851.983966516631</v>
+        <v>1917.043222190885</v>
       </c>
       <c r="N23" t="n">
-        <v>2398.762783575414</v>
+        <v>2463.822039249668</v>
       </c>
       <c r="O23" t="n">
-        <v>2901.735254454751</v>
+        <v>2966.794510129005</v>
       </c>
       <c r="P23" t="n">
-        <v>3296.509620811929</v>
+        <v>3361.568876486183</v>
       </c>
       <c r="Q23" t="n">
-        <v>3544.795982567611</v>
+        <v>3609.855238241865</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.872304798666</v>
+        <v>3668.872304798668</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.22441707634</v>
+        <v>3633.224417076341</v>
       </c>
       <c r="T23" t="n">
         <v>3501.889450211141</v>
@@ -6032,7 +6032,7 @@
         <v>2489.632795612528</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.136244387295</v>
+        <v>2174.136244387294</v>
       </c>
     </row>
     <row r="24">
@@ -6057,22 +6057,22 @@
         <v>319.2497322239498</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8866320565678</v>
+        <v>182.8866320565679</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38473769443536</v>
+        <v>92.38473769443539</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37744609597333</v>
+        <v>73.37744609597335</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0547155865906</v>
+        <v>167.0547155865907</v>
       </c>
       <c r="K24" t="n">
         <v>405.3189145669378</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0170748796035</v>
+        <v>772.0170748796032</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293400101919</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9795448515465</v>
+        <v>639.0268276723795</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6861426742183</v>
+        <v>544.7334254950512</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2122840124613</v>
+        <v>469.2595668332941</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9419711806469</v>
+        <v>395.9892540014796</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6948044333152</v>
+        <v>323.7420872541479</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6347485586128</v>
+        <v>230.6820313794454</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06034252704929</v>
+        <v>159.1076253478819</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37744609597333</v>
+        <v>73.37744609597335</v>
       </c>
       <c r="J25" t="n">
         <v>118.5000785429089</v>
@@ -6187,10 +6187,10 @@
         <v>1045.529080292431</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1823101449928</v>
+        <v>892.182310144992</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0325117520414</v>
+        <v>746.0325117520406</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467799</v>
+        <v>698.9037015467779</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455611</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.87963479397</v>
+        <v>1706.925601880498</v>
       </c>
       <c r="M26" t="n">
-        <v>1872.543307058812</v>
+        <v>2240.457506552423</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285459</v>
+        <v>2787.236323611205</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164796</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521974</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277657</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
@@ -6367,25 +6367,25 @@
         <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F28" t="n">
         <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
         <v>786.3326864982171</v>
@@ -6412,13 +6412,13 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297367</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038486</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467804</v>
+        <v>698.9037015467779</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>393.2994530991692</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455611</v>
+        <v>727.1188267890157</v>
       </c>
       <c r="L29" t="n">
-        <v>1394.992678104634</v>
+        <v>1178.153040037424</v>
       </c>
       <c r="M29" t="n">
-        <v>1928.524582776559</v>
+        <v>1711.684944709349</v>
       </c>
       <c r="N29" t="n">
-        <v>2475.303399835341</v>
+        <v>2258.463761768131</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164796</v>
+        <v>2761.436232647468</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521974</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277657</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873065</v>
@@ -6546,7 +6546,7 @@
         <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697995</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899659</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302704</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519659</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038486</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467806</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
@@ -6698,28 +6698,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455611</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.87963479397</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>2033.429937623799</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N32" t="n">
-        <v>2580.208754682581</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O32" t="n">
-        <v>3290.208794490543</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P32" t="n">
-        <v>3684.983160847722</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603404</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834459</v>
@@ -6728,7 +6728,7 @@
         <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863832</v>
@@ -6737,13 +6737,13 @@
         <v>3346.282596468335</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="33">
@@ -6780,10 +6780,10 @@
         <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6841,16 +6841,16 @@
         <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
         <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302704</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
         <v>81.14691689668918</v>
@@ -6859,13 +6859,13 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L34" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6914,7 +6914,7 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D35" t="n">
         <v>1400.778593038483</v>
@@ -6941,22 +6941,22 @@
         <v>771.2510705659141</v>
       </c>
       <c r="L35" t="n">
-        <v>1561.793016801445</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M35" t="n">
-        <v>2095.32492147337</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N35" t="n">
-        <v>2642.103738532152</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O35" t="n">
-        <v>3145.076209411489</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P35" t="n">
-        <v>3539.850575768667</v>
+        <v>3518.923563871313</v>
       </c>
       <c r="Q35" t="n">
-        <v>3998.328778277655</v>
+        <v>3977.401766380301</v>
       </c>
       <c r="R35" t="n">
         <v>4057.345844834458</v>
@@ -6965,22 +6965,22 @@
         <v>3994.504809309626</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.89585086383</v>
       </c>
       <c r="V35" t="n">
         <v>3346.282596468333</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="36">
@@ -7017,7 +7017,7 @@
         <v>174.8241863873065</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L36" t="n">
         <v>779.7865456803191</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467802</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J38" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K38" t="n">
-        <v>875.932246148438</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L38" t="n">
-        <v>1326.966459396847</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M38" t="n">
-        <v>2305.516762226675</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N38" t="n">
-        <v>2852.295579285458</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O38" t="n">
-        <v>3355.268050164795</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P38" t="n">
-        <v>3750.042416521973</v>
+        <v>3518.923563871313</v>
       </c>
       <c r="Q38" t="n">
-        <v>3998.328778277655</v>
+        <v>3977.401766380301</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J39" t="n">
         <v>174.8241863873065</v>
@@ -7327,7 +7327,7 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J40" t="n">
         <v>172.7749345960314</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D41" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
@@ -7421,10 +7421,10 @@
         <v>1755.817188486248</v>
       </c>
       <c r="N41" t="n">
-        <v>2577.044482857899</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O41" t="n">
-        <v>3080.016953737236</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P41" t="n">
         <v>3474.791320094414</v>
@@ -7436,22 +7436,22 @@
         <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W41" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y41" t="n">
         <v>2372.257749805548</v>
@@ -7491,10 +7491,10 @@
         <v>174.8241863873065</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H43" t="n">
         <v>131.0229611302705</v>
@@ -7567,13 +7567,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973146</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982174</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M43" t="n">
         <v>1176.995117350173</v>
@@ -7588,25 +7588,25 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V43" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X43" t="n">
         <v>1081.642828347423</v>
@@ -7628,7 +7628,7 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E44" t="n">
         <v>1062.439973388313</v>
@@ -7646,37 +7646,37 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
-        <v>270.0260478557146</v>
+        <v>393.2994530991692</v>
       </c>
       <c r="K44" t="n">
-        <v>603.8454215455611</v>
+        <v>727.1188267890157</v>
       </c>
       <c r="L44" t="n">
-        <v>1054.87963479397</v>
+        <v>1178.153040037424</v>
       </c>
       <c r="M44" t="n">
-        <v>2033.429937623799</v>
+        <v>1711.684944709349</v>
       </c>
       <c r="N44" t="n">
-        <v>2852.295579285458</v>
+        <v>2258.463761768131</v>
       </c>
       <c r="O44" t="n">
-        <v>3355.268050164795</v>
+        <v>2761.436232647468</v>
       </c>
       <c r="P44" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q44" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R44" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U44" t="n">
         <v>3629.895850863831</v>
@@ -7728,10 +7728,10 @@
         <v>174.8241863873065</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698007</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899671</v>
       </c>
       <c r="D46" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257047</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913848</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415477</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643393</v>
+        <v>229.79051496434</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
@@ -7807,10 +7807,10 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M46" t="n">
         <v>1176.995117350173</v>
@@ -7825,31 +7825,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q46" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R46" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T46" t="n">
         <v>1953.038372570352</v>
       </c>
       <c r="U46" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V46" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W46" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X46" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519664</v>
+        <v>908.299882151967</v>
       </c>
     </row>
   </sheetData>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>212.1614152764239</v>
+        <v>212.1614152764233</v>
       </c>
       <c r="L5" t="n">
-        <v>225.9304893188449</v>
+        <v>225.9304893188441</v>
       </c>
       <c r="M5" t="n">
-        <v>219.4018707603992</v>
+        <v>219.4018707603983</v>
       </c>
       <c r="N5" t="n">
-        <v>218.2916099030246</v>
+        <v>218.2916099030238</v>
       </c>
       <c r="O5" t="n">
-        <v>219.5965380661497</v>
+        <v>219.5965380661489</v>
       </c>
       <c r="P5" t="n">
-        <v>222.2700605111187</v>
+        <v>222.270060511118</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>123.6869003357297</v>
+        <v>123.6869003357294</v>
       </c>
       <c r="K6" t="n">
-        <v>132.4563458344812</v>
+        <v>132.4563458344808</v>
       </c>
       <c r="L6" t="n">
-        <v>131.3134574915386</v>
+        <v>131.313457491538</v>
       </c>
       <c r="M6" t="n">
-        <v>133.6842191437707</v>
+        <v>133.6842191437701</v>
       </c>
       <c r="N6" t="n">
-        <v>122.6682558511141</v>
+        <v>122.6682558511134</v>
       </c>
       <c r="O6" t="n">
-        <v>134.6617264891805</v>
+        <v>134.6617264891799</v>
       </c>
       <c r="P6" t="n">
-        <v>127.6062572357714</v>
+        <v>127.6062572357709</v>
       </c>
       <c r="Q6" t="n">
-        <v>135.7248343369109</v>
+        <v>135.7248343369106</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,19 +8377,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>130.7280129970313</v>
+        <v>130.728012997031</v>
       </c>
       <c r="M7" t="n">
-        <v>134.5431653216065</v>
+        <v>134.5431653216061</v>
       </c>
       <c r="N7" t="n">
-        <v>123.4071347145266</v>
+        <v>123.4071347145262</v>
       </c>
       <c r="O7" t="n">
-        <v>134.5047345663805</v>
+        <v>134.5047345663802</v>
       </c>
       <c r="P7" t="n">
-        <v>134.3465531299175</v>
+        <v>134.3465531299172</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>-4.405364961712621e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9641,10 +9641,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>274.0827251024775</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>339.7991449754616</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,19 +9872,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>165.3902622431537</v>
       </c>
       <c r="M26" t="n">
-        <v>287.001785447392</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>124.5185911550046</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>343.5485285966307</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,16 +10124,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10355,19 +10355,19 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>209.118756493561</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>277.2206841544144</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>342.9371040273959</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>21.13839585591369</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,16 +10820,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>274.8351763665425</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10838,13 +10838,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>21.13839585591506</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11069,13 +11069,13 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>277.2206841544134</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>277.2206841544135</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>124.5185911550046</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11303,22 +11303,22 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>274.8351763665421</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8126253390002</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,10 +23264,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>355.0091537477815</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>291.0188920198342</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26654546369548</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8310421456546</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>266.4345551508401</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>359.3167223315733</v>
       </c>
     </row>
     <row r="12">
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>140.3256047741476</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>84.1015248005429</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.01093634556706</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8478090069616</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>123.5902569132939</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>355.8126253390003</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0005093289731</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6865480628401</v>
+        <v>51.48575134574963</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65571344844558</v>
+        <v>14.65571344844568</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>16.68224486599792</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0739556344217</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3197523929327</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>359.3167223315733</v>
       </c>
     </row>
     <row r="15">
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5127463220888</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43120408535773</v>
+        <v>60.61502464365442</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.01093634556706</v>
       </c>
       <c r="S16" t="n">
         <v>162.8478090069616</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>192.6277329516889</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>126.3097435334621</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>37.20239425505287</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7114114442476</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>112.3257305462014</v>
+        <v>295.8347477353962</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -24017,25 +24017,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>35.29140884510301</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>130.0216171965473</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>253.855905527062</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>167.7241159487994</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>79.18123646338697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>225300.9931471856</v>
+        <v>225300.9931471855</v>
       </c>
       <c r="C2" t="n">
-        <v>225302.357520948</v>
+        <v>225302.3575209479</v>
       </c>
       <c r="D2" t="n">
-        <v>225304.0750181288</v>
+        <v>225304.0750181289</v>
       </c>
       <c r="E2" t="n">
-        <v>200624.0198195306</v>
+        <v>200624.0198195305</v>
       </c>
       <c r="F2" t="n">
-        <v>200624.0198195306</v>
+        <v>200624.0198195305</v>
       </c>
       <c r="G2" t="n">
-        <v>218496.3036745068</v>
+        <v>218496.303674507</v>
       </c>
       <c r="H2" t="n">
         <v>218496.3036745068</v>
       </c>
       <c r="I2" t="n">
-        <v>225786.4867126777</v>
+        <v>225786.4867126778</v>
       </c>
       <c r="J2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="K2" t="n">
         <v>225786.4867126781</v>
@@ -26350,7 +26350,7 @@
         <v>225786.486712678</v>
       </c>
       <c r="O2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="P2" t="n">
         <v>225786.4867126781</v>
@@ -26366,28 +26366,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>14118.19859945286</v>
+        <v>14118.19859945394</v>
       </c>
       <c r="D3" t="n">
-        <v>16714.64353072344</v>
+        <v>16714.64353072242</v>
       </c>
       <c r="E3" t="n">
         <v>1117168.84147192</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487405</v>
+        <v>37580.10929487403</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22820.44161905848</v>
+        <v>22820.44161905851</v>
       </c>
       <c r="J3" t="n">
-        <v>25410.44272728124</v>
+        <v>25410.44272728106</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>37580.10929487406</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.5682920729</v>
+        <v>207188.568292073</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>430898.5094426759</v>
       </c>
       <c r="C4" t="n">
-        <v>426739.1543200271</v>
+        <v>426739.1543200267</v>
       </c>
       <c r="D4" t="n">
         <v>421594.991239873</v>
       </c>
       <c r="E4" t="n">
-        <v>37585.46710210905</v>
+        <v>37585.467102109</v>
       </c>
       <c r="F4" t="n">
-        <v>37585.46710210905</v>
+        <v>37585.467102109</v>
       </c>
       <c r="G4" t="n">
-        <v>74613.22686521037</v>
+        <v>74613.22686521032</v>
       </c>
       <c r="H4" t="n">
-        <v>74613.22686521035</v>
+        <v>74613.22686521034</v>
       </c>
       <c r="I4" t="n">
-        <v>85473.00365913908</v>
+        <v>85473.0036591391</v>
       </c>
       <c r="J4" t="n">
-        <v>80755.36360646597</v>
+        <v>80755.36360646591</v>
       </c>
       <c r="K4" t="n">
+        <v>80755.36360646589</v>
+      </c>
+      <c r="L4" t="n">
         <v>80755.36360646595</v>
       </c>
-      <c r="L4" t="n">
-        <v>80755.36360646597</v>
-      </c>
       <c r="M4" t="n">
+        <v>80755.36360646591</v>
+      </c>
+      <c r="N4" t="n">
+        <v>80755.36360646595</v>
+      </c>
+      <c r="O4" t="n">
         <v>80755.36360646589</v>
       </c>
-      <c r="N4" t="n">
-        <v>80755.36360646592</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>80755.36360646591</v>
-      </c>
-      <c r="P4" t="n">
-        <v>80755.36360646592</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26470,16 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>33965.59259112991</v>
+        <v>33965.59259112993</v>
       </c>
       <c r="D5" t="n">
         <v>34391.06348367693</v>
       </c>
       <c r="E5" t="n">
+        <v>76569.58029657605</v>
+      </c>
+      <c r="F5" t="n">
         <v>76569.58029657604</v>
-      </c>
-      <c r="F5" t="n">
-        <v>76569.58029657605</v>
       </c>
       <c r="G5" t="n">
         <v>80518.7330569645</v>
@@ -26491,19 +26491,19 @@
         <v>85736.38360144483</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="N5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="O5" t="n">
         <v>89377.94167480612</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-239225.1162954903</v>
+        <v>-239229.5298733584</v>
       </c>
       <c r="C6" t="n">
-        <v>-249520.5879896618</v>
+        <v>-249524.989164133</v>
       </c>
       <c r="D6" t="n">
-        <v>-247396.6232361445</v>
+        <v>-247401.008797003</v>
       </c>
       <c r="E6" t="n">
-        <v>-1030699.869051075</v>
+        <v>-1030928.618750103</v>
       </c>
       <c r="F6" t="n">
-        <v>86468.9724208453</v>
+        <v>86240.22272181684</v>
       </c>
       <c r="G6" t="n">
-        <v>25784.2344574579</v>
+        <v>25717.96006620199</v>
       </c>
       <c r="H6" t="n">
-        <v>63364.34375233194</v>
+        <v>63298.0693610759</v>
       </c>
       <c r="I6" t="n">
-        <v>31756.65783303532</v>
+        <v>31756.65783303537</v>
       </c>
       <c r="J6" t="n">
-        <v>30242.7387041247</v>
+        <v>30242.738704125</v>
       </c>
       <c r="K6" t="n">
-        <v>55653.18143140599</v>
+        <v>55653.18143140606</v>
       </c>
       <c r="L6" t="n">
-        <v>18073.07213653193</v>
+        <v>18073.07213653196</v>
       </c>
       <c r="M6" t="n">
-        <v>-151535.3868606669</v>
+        <v>-151535.386860667</v>
       </c>
       <c r="N6" t="n">
-        <v>55653.181431406</v>
+        <v>55653.18143140596</v>
       </c>
       <c r="O6" t="n">
-        <v>55653.181431406</v>
+        <v>55653.18143140606</v>
       </c>
       <c r="P6" t="n">
-        <v>55653.18143140609</v>
+        <v>55653.18143140612</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="G2" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="H2" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="I2" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P2" t="n">
         <v>46.97513661859256</v>
@@ -26738,7 +26738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>15.50424729953685</v>
+        <v>15.50424729953805</v>
       </c>
       <c r="D3" t="n">
         <v>35.02126071912533</v>
@@ -26747,7 +26747,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26796,25 +26796,25 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2180761996666</v>
+        <v>917.2180761996669</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
         <v>1014.336461208615</v>
@@ -26823,7 +26823,7 @@
         <v>1014.336461208614</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="O4" t="n">
         <v>1014.336461208614</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26960,16 +26960,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>15.50424729953685</v>
+        <v>15.50424729953805</v>
       </c>
       <c r="D3" t="n">
-        <v>19.51701341958847</v>
+        <v>19.51701341958728</v>
       </c>
       <c r="E3" t="n">
         <v>1054.755439874173</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.81662079737396</v>
+        <v>85.81662079737407</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11838500894817</v>
+        <v>97.11838500894748</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27631,13 +27631,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>338.8364790096109</v>
+        <v>338.8364790096108</v>
       </c>
       <c r="I5" t="n">
-        <v>208.0729649713491</v>
+        <v>208.0729649713489</v>
       </c>
       <c r="J5" t="n">
-        <v>6.659224593852453</v>
+        <v>6.659224593852046</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,13 +27658,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.259908116784562</v>
+        <v>3.259908116784045</v>
       </c>
       <c r="R5" t="n">
-        <v>145.9538669886691</v>
+        <v>145.9538669886689</v>
       </c>
       <c r="S5" t="n">
-        <v>207.599755876343</v>
+        <v>207.5997558763429</v>
       </c>
       <c r="T5" t="n">
         <v>222.8230059759757</v>
@@ -27713,7 +27713,7 @@
         <v>111.9133654388212</v>
       </c>
       <c r="I6" t="n">
-        <v>88.2484409523456</v>
+        <v>88.24844095234552</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>98.08728580573518</v>
+        <v>98.08728580573501</v>
       </c>
       <c r="S6" t="n">
         <v>171.0637325442761</v>
@@ -27749,7 +27749,7 @@
         <v>200.0303097960643</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9391880837155</v>
+        <v>225.9391880837154</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27792,13 +27792,13 @@
         <v>161.9785962146699</v>
       </c>
       <c r="I7" t="n">
-        <v>154.6096872212441</v>
+        <v>154.609687221244</v>
       </c>
       <c r="J7" t="n">
-        <v>91.38251566997609</v>
+        <v>91.38251566997593</v>
       </c>
       <c r="K7" t="n">
-        <v>19.02122493263563</v>
+        <v>19.02122493263537</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>83.82090190946433</v>
+        <v>83.82090190946414</v>
       </c>
       <c r="R7" t="n">
-        <v>176.0362765059644</v>
+        <v>176.0362765059643</v>
       </c>
       <c r="S7" t="n">
-        <v>223.5293580029852</v>
+        <v>223.5293580029851</v>
       </c>
       <c r="T7" t="n">
         <v>227.8261304736785</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448028</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="C17" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="D17" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="E17" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="F17" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="G17" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="H17" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="T17" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="U17" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="V17" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="W17" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="X17" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="C19" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="D19" t="n">
-        <v>73.8963529430729</v>
+        <v>11.47954295044872</v>
       </c>
       <c r="E19" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="F19" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="G19" t="n">
-        <v>11.47954295044735</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="H19" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="I19" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="S19" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="T19" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="U19" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="V19" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="W19" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="X19" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="C20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="D20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="E20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="F20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="G20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="H20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="T20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="U20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="V20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="W20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="X20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="C22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="D22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="E22" t="n">
-        <v>11.47954295044735</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="F22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="G22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="H22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="I22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="S22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="T22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="U22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="V22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="W22" t="n">
-        <v>73.8963529430729</v>
+        <v>11.47954295044872</v>
       </c>
       <c r="X22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="C23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="D23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="E23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="F23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="G23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="H23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="T23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="U23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="V23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="W23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="X23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.47954295044738</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="C25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="D25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="E25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="F25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="G25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="H25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="I25" t="n">
-        <v>73.8963529430729</v>
+        <v>11.47954295044869</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="S25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="T25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="U25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="V25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="W25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="X25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307283</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="32">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J37" t="n">
         <v>46.97513661859223</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859244</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.9751366185921</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859233</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="44">
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0623286323599471</v>
+        <v>0.0623286323599519</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6383231061563084</v>
+        <v>0.6383231061563575</v>
       </c>
       <c r="I5" t="n">
-        <v>2.402924599056863</v>
+        <v>2.402924599057048</v>
       </c>
       <c r="J5" t="n">
-        <v>5.290064760760065</v>
+        <v>5.290064760760472</v>
       </c>
       <c r="K5" t="n">
-        <v>7.928435768556628</v>
+        <v>7.928435768557237</v>
       </c>
       <c r="L5" t="n">
-        <v>9.835925651142361</v>
+        <v>9.835925651143118</v>
       </c>
       <c r="M5" t="n">
-        <v>10.94436246687357</v>
+        <v>10.94436246687441</v>
       </c>
       <c r="N5" t="n">
-        <v>11.12145369356627</v>
+        <v>11.12145369356712</v>
       </c>
       <c r="O5" t="n">
-        <v>10.50167335553705</v>
+        <v>10.50167335553785</v>
       </c>
       <c r="P5" t="n">
-        <v>8.962935244150851</v>
+        <v>8.96293524415154</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.730791097760243</v>
+        <v>6.730791097760759</v>
       </c>
       <c r="R5" t="n">
-        <v>3.915250952480531</v>
+        <v>3.915250952480831</v>
       </c>
       <c r="S5" t="n">
-        <v>1.420313709902296</v>
+        <v>1.420313709902405</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2728435881556686</v>
+        <v>0.2728435881556895</v>
       </c>
       <c r="U5" t="n">
-        <v>0.004986290588795767</v>
+        <v>0.004986290588796151</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03334875834240002</v>
+        <v>0.03334875834240259</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3220787976752845</v>
+        <v>0.3220787976753093</v>
       </c>
       <c r="I6" t="n">
-        <v>1.148191899069475</v>
+        <v>1.148191899069563</v>
       </c>
       <c r="J6" t="n">
-        <v>3.150726330937013</v>
+        <v>3.150726330937256</v>
       </c>
       <c r="K6" t="n">
-        <v>5.385093139877815</v>
+        <v>5.385093139878228</v>
       </c>
       <c r="L6" t="n">
-        <v>7.240922288335585</v>
+        <v>7.240922288336142</v>
       </c>
       <c r="M6" t="n">
-        <v>8.449814778247584</v>
+        <v>8.449814778248234</v>
       </c>
       <c r="N6" t="n">
-        <v>8.673456232219207</v>
+        <v>8.673456232219873</v>
       </c>
       <c r="O6" t="n">
-        <v>7.934517955263922</v>
+        <v>7.934517955264532</v>
       </c>
       <c r="P6" t="n">
-        <v>6.368150178558826</v>
+        <v>6.368150178559316</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.256939749110572</v>
+        <v>4.2569397491109</v>
       </c>
       <c r="R6" t="n">
-        <v>2.07054834690796</v>
+        <v>2.07054834690812</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6194385595616843</v>
+        <v>0.6194385595617319</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1344188987573053</v>
+        <v>0.1344188987573156</v>
       </c>
       <c r="U6" t="n">
-        <v>0.002193997259368423</v>
+        <v>0.002193997259368592</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02795847873686973</v>
+        <v>0.02795847873687188</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2485762927696238</v>
+        <v>0.2485762927696429</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8407877060142283</v>
+        <v>0.8407877060142929</v>
       </c>
       <c r="J7" t="n">
-        <v>1.97666444669669</v>
+        <v>1.976664446696842</v>
       </c>
       <c r="K7" t="n">
-        <v>3.248266893247228</v>
+        <v>3.248266893247478</v>
       </c>
       <c r="L7" t="n">
-        <v>4.156663284206979</v>
+        <v>4.156663284207299</v>
       </c>
       <c r="M7" t="n">
-        <v>4.382618625998589</v>
+        <v>4.382618625998925</v>
       </c>
       <c r="N7" t="n">
-        <v>4.278409750706623</v>
+        <v>4.278409750706952</v>
       </c>
       <c r="O7" t="n">
-        <v>3.95180388546228</v>
+        <v>3.951803885462584</v>
       </c>
       <c r="P7" t="n">
-        <v>3.381450919230134</v>
+        <v>3.381450919230394</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.341141342230065</v>
+        <v>2.341141342230245</v>
       </c>
       <c r="R7" t="n">
-        <v>1.25711487120507</v>
+        <v>1.257114871205166</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4872400339870842</v>
+        <v>0.4872400339871216</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1194589546029888</v>
+        <v>0.119458954602998</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001525007931101987</v>
+        <v>0.001525007931102104</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31996,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32148,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32330,10 +32330,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32549,7 +32549,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32558,7 +32558,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837925</v>
@@ -32792,13 +32792,13 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
         <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O24" t="n">
         <v>557.708647897025</v>
@@ -33041,10 +33041,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33266,7 +33266,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233475</v>
@@ -33500,7 +33500,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33737,10 +33737,10 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -34211,7 +34211,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34448,7 +34448,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49963293754656</v>
+        <v>72.49963293754651</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9688758687999</v>
+        <v>232.9688758687998</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6785884946785</v>
+        <v>346.6785884946784</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5545957179642</v>
+        <v>374.5545957179641</v>
       </c>
       <c r="N13" t="n">
         <v>371.7781624920204</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2743465471201</v>
+        <v>329.27434654712</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8782874695908</v>
+        <v>261.8782874695907</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.315454862374</v>
+        <v>105.3154548623739</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49963293754659</v>
+        <v>72.49963293754651</v>
       </c>
       <c r="K16" t="n">
-        <v>232.9688758688</v>
+        <v>232.9688758687998</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6785884946785</v>
+        <v>346.6785884946784</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5545957179642</v>
+        <v>374.5545957179641</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7781624920205</v>
+        <v>371.7781624920204</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2743465471202</v>
+        <v>329.27434654712</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8782874695908</v>
+        <v>261.8782874695907</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.315454862374</v>
+        <v>105.3154548623739</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35978,10 +35978,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687129</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554005</v>
@@ -36142,7 +36142,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222434</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36206,7 +36206,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004592</v>
@@ -36361,10 +36361,10 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>729.6728394948096</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>878.7202608056883</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
@@ -36379,7 +36379,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
         <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O24" t="n">
         <v>415.1124034525806</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>620.9803766354859</v>
       </c>
       <c r="M26" t="n">
-        <v>825.9229012776187</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
         <v>508.0530008882191</v>
@@ -36616,7 +36616,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36689,10 +36689,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36762,7 +36762,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>315.3055921237172</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>799.1386429889628</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36844,16 +36844,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013292</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
@@ -37075,19 +37075,19 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>717.1717573817801</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737863</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37148,7 +37148,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>798.5272184197281</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
@@ -37321,13 +37321,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>80.75159439813847</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,10 +37385,10 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>612.026462921943</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
@@ -37558,13 +37558,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>80.75159439813984</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37719,7 +37719,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564858</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37789,13 +37789,13 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>829.5225195673249</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737854</v>
       </c>
       <c r="Q41" t="n">
         <v>463.1092954636242</v>
@@ -37859,7 +37859,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412321</v>
       </c>
       <c r="P43" t="n">
         <v>281.932207763703</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>315.3055921237172</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
@@ -38023,22 +38023,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>827.1370117794536</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
